--- a/medicine/Enfance/Henri_Meunier_(illustrateur_français)/Henri_Meunier_(illustrateur_français).xlsx
+++ b/medicine/Enfance/Henri_Meunier_(illustrateur_français)/Henri_Meunier_(illustrateur_français).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Henri_Meunier_(illustrateur_fran%C3%A7ais)</t>
+          <t>Henri_Meunier_(illustrateur_français)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri Meunier, né en 1972 à Suresnes (Hauts-de-Seine), est un artiste français, illustrateur et auteur de littérature jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Henri_Meunier_(illustrateur_fran%C3%A7ais)</t>
+          <t>Henri_Meunier_(illustrateur_français)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Natif de Suresnes[1], Henri Meunier vit et travaille à Toulouse[2], après avoir vécu à Bordeaux[1]. Il étudie les arts plastiques à l'Université, puis travaille durant six ans comme travailleur social[1]. Il publie ses premiers ouvrages jeunesse en 2001, aux éditions du Rouergue :  Méêêêtro, boulot.. qu'il écrit et illustre, et Le Paradis, qu'il écrit, sur des illustrations de Anouk Ricard.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Natif de Suresnes, Henri Meunier vit et travaille à Toulouse, après avoir vécu à Bordeaux. Il étudie les arts plastiques à l'Université, puis travaille durant six ans comme travailleur social. Il publie ses premiers ouvrages jeunesse en 2001, aux éditions du Rouergue :  Méêêêtro, boulot.. qu'il écrit et illustre, et Le Paradis, qu'il écrit, sur des illustrations de Anouk Ricard.
 Il a écrit ou illustré plusieurs dizaines d'ouvrages, et il est publié par de nombreux éditeurs jeunesse réputés, dont les éditions du Rouergue, les éditions Thierry Magnier, Grasset Jeunesse, Actes sud junior ou l'Atelier du poisson soluble.
 Il est également scénariste de bande dessinée.
-Il a partagé un atelier à Bordeaux avec les auteurs et / ou illustrateurs Régis Lejonc, Alfred, Olivier Latyk et Richard Guérineau[3].
-Il collabore avec son collègue Régis Lejonc pour la réalisation de plusieurs ouvrages[4], et sont récompensés à plusieurs reprises : en 2003 par le Prix Octogone[5],[6] pour La môme aux oiseaux qu'il a écrit, sur des illustrations de Régis Lejonc ; en 2018, par le Prix Sorcières[7], dans la catégorie Carrément Sorcières - Fiction,  pour l'album Cœur de bois qu'il a écrit, sur des illustrations de Régis Lejonc, leur cinquième collaboration[4]. Selon ce dernier : « Le sujet profond de ce livre est celui de la résilience : comment se construit-on après avoir subi des atrocités. Il ne s'agit surtout pas de pardon, et évidemment pas d'oubli[4]. » L'ouvrage est également « coup de cœur » 2017 du Centre national de la littérature pour la jeunesse (BnF), qui écrit dans son avis critique : « Dans un langage subtil à décoder, justement parce qu'ils se jouent des codes, les auteurs nous entraînent sur les terres de l'intime. L'illustration est puissante, sombre[8] ». Selon l'avis critique du site de référence Ricochet, « Malgré les maltraitances subies, [l'héroïne] a réussi à pardonner l'impardonnable et à construire sa vie. Un magnifique récit, à l'écriture soignée et aux illustrations hyperréalistes, sur la résilience, l'amour et le pardon[9]. » En 2022, ils signent Le berger et l'assassin, qui se déroule dans les montagnes, en Haute-Savoie. Pour La Revue des livres pour enfants : « Dans la lignée des grands récits alpins, le duo d'auteurs imagine une histoire qui n'aurait pas pu naître ailleurs. [...] Le romanesque explose à chaque page de ce texte à l'âpreté philosophique, construit autour d'une situation historique faisant inévitablement écho à l'actualité. La montagne y apparaît alors comme lieu de passage et de rencontre, comme frontière métaphysique à franchir, révélant in fine la profonde humanité qui relie en un même souffle les assassins et les bergers[10]. »
-En 2019, il commence la série Taupe et mulot avec l'auteur illustrateur Benjamin Chaud. Pour  le premier opus Les beaux jours, Michel Abescat écrit dans le journal Télérama : « trois histoires à la fraîcheur craquante comme sorties de l’éternité de l’enfance [...] Et deux héros de belle fantaisie »[11].
+Il a partagé un atelier à Bordeaux avec les auteurs et / ou illustrateurs Régis Lejonc, Alfred, Olivier Latyk et Richard Guérineau.
+Il collabore avec son collègue Régis Lejonc pour la réalisation de plusieurs ouvrages, et sont récompensés à plusieurs reprises : en 2003 par le Prix Octogone, pour La môme aux oiseaux qu'il a écrit, sur des illustrations de Régis Lejonc ; en 2018, par le Prix Sorcières, dans la catégorie Carrément Sorcières - Fiction,  pour l'album Cœur de bois qu'il a écrit, sur des illustrations de Régis Lejonc, leur cinquième collaboration. Selon ce dernier : « Le sujet profond de ce livre est celui de la résilience : comment se construit-on après avoir subi des atrocités. Il ne s'agit surtout pas de pardon, et évidemment pas d'oubli. » L'ouvrage est également « coup de cœur » 2017 du Centre national de la littérature pour la jeunesse (BnF), qui écrit dans son avis critique : « Dans un langage subtil à décoder, justement parce qu'ils se jouent des codes, les auteurs nous entraînent sur les terres de l'intime. L'illustration est puissante, sombre ». Selon l'avis critique du site de référence Ricochet, « Malgré les maltraitances subies, [l'héroïne] a réussi à pardonner l'impardonnable et à construire sa vie. Un magnifique récit, à l'écriture soignée et aux illustrations hyperréalistes, sur la résilience, l'amour et le pardon. » En 2022, ils signent Le berger et l'assassin, qui se déroule dans les montagnes, en Haute-Savoie. Pour La Revue des livres pour enfants : « Dans la lignée des grands récits alpins, le duo d'auteurs imagine une histoire qui n'aurait pas pu naître ailleurs. [...] Le romanesque explose à chaque page de ce texte à l'âpreté philosophique, construit autour d'une situation historique faisant inévitablement écho à l'actualité. La montagne y apparaît alors comme lieu de passage et de rencontre, comme frontière métaphysique à franchir, révélant in fine la profonde humanité qui relie en un même souffle les assassins et les bergers. »
+En 2019, il commence la série Taupe et mulot avec l'auteur illustrateur Benjamin Chaud. Pour  le premier opus Les beaux jours, Michel Abescat écrit dans le journal Télérama : « trois histoires à la fraîcheur craquante comme sorties de l’éternité de l’enfance [...] Et deux héros de belle fantaisie ».
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Henri_Meunier_(illustrateur_fran%C3%A7ais)</t>
+          <t>Henri_Meunier_(illustrateur_français)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,31 +561,33 @@
           <t>Quelques œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Méêêêtro, boulot.., éditions du Rouergue, 2001
 Le Paradis, texte de Henri Meunier, illustrations de Anouk Ricard, éditions du Rouergue, 2001
  Le cri, Henri Meunier, Régis Lejonc, Rouergue, 2003
  Arrête ton cinéma !, texte de Guillaume Guéraud, ill. Henri Meunier,  Rouergue, 2003
  Komunikation zéro, texte de Henri Meunier, ill. par Thierry Murat, Rouergue, 2003
-La môme aux oiseaux, texte de Henri Meunier, ill. Régis Lejonc, Rouergue, 2003[12] Prix Octogone 2003[5]
+La môme aux oiseaux, texte de Henri Meunier, ill. Régis Lejonc, Rouergue, 2003 Prix Octogone 2003
  La mer et lui, Henri Meunier et Régis Lejonc, Rouergue, 2004 ; rééd. Notari, 2013
-La Famille Ogre, éditions Thierry Magnier, 2004 « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)[13]
+La Famille Ogre, éditions Thierry Magnier, 2004 « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)
 Au panier, Henri Meunier, ill. Nathalie Choux, Rouergue, 2004 Prix Écolire 2006
 L'Autre fois, Rouergue, 2005 Prix Octogone catégorie graphisme 2005
- Après la nuit (BD), scénario Henri Meunier et Richard Guérineau, dessin Richard Guérineau, couleur Raphaël Hédon, Delcourt, 2008 [14],[15]
+ Après la nuit (BD), scénario Henri Meunier et Richard Guérineau, dessin Richard Guérineau, couleur Raphaël Hédon, Delcourt, 2008 ,
 Grand et Petit, texte Henri Meunier, illustrations Joanna Concejo, L'Atelier du poisson soluble, 2008
  La rue qui ne se traverse pas, Henri Meunier, Régis Lejonc, Notari, 2011
  Méli Mélodie, Henri Meunier et Martin Jarrie, Rouergue, 2013
  Amanda chocolat, texte de Bernard Friot, illustré par Henri Meunier, Milan, 2014
- Cour des miracles, texte Henri Meunier, illustrations Jean-François Martin, Rouergue, 2014[16]
+ Cour des miracles, texte Henri Meunier, illustrations Jean-François Martin, Rouergue, 2014
  C'est la vie mon poussin !, René Gouichoux, Henri Meunier, Albin Michel jeunesse, 2015
-Cœur de bois[4],[8],[9], texte de Henri Meunier, illustrations Régis Lejonc, Notari, 2016 Prix Sorcières 2018[7], catégorie Carrément Sorcières - Fiction
+Cœur de bois texte de Henri Meunier, illustrations Régis Lejonc, Notari, 2016 Prix Sorcières 2018, catégorie Carrément Sorcières - Fiction
  Au commencement, Henri Meunier, Vincent Bergier, Seuil jeunesse, 2017
 Tout comme, Rouergue, 2017
- Sept macchabées : sept morts-vivants à la conquête du Pôle (BD), scénario Henri Meunier, dessin Étienne Le Roux, couleur Thierry Leprévost, Delcourt, 2017[17]
+ Sept macchabées : sept morts-vivants à la conquête du Pôle (BD), scénario Henri Meunier, dessin Étienne Le Roux, couleur Thierry Leprévost, Delcourt, 2017
  Au commencement, Henri Meunier, Vincent Bergier, Seuil jeunesse, 2017
- 1temps[18], Henri Meunier, Aurore Petit, Rouergue, 2018
+ 1temps, Henri Meunier, Aurore Petit, Rouergue, 2018
  La face cachée du prince charmant, Guillaume Guéraud et Henri Meunier, Rouergue, 2019
 Notre part de ciel, Henri Meunier et Benjamin Chaud, Hélium, 2020
 Mirabelle Prunier, Henri Meunier et Nathalie Choux, Rouergue, 2020
@@ -580,13 +596,47 @@
 La princesse rebelle se dévoile, Guillaume Guéraud et Henri Meunier, Rouergue, 2021
 Le Lion, Henri Meunier et Vincent Mathy, Albin Michel jeunesse, 2021
  Petites nouvelles de la révolution, Henri Meunier et Alex Cousseau, Sarbacane, 2021
- Le berger et l'assassin[10], Henri Meunier et Régis Lejonc, Little urban, 2022
+ Le berger et l'assassin, Henri Meunier et Régis Lejonc, Little urban, 2022
 Croque-cochon, Rouergue, 2022
 La chaussette de Josette, Simon Priem et Henri Meunier, Sarbacane, 2022
 Peter Panpan, Nathan, 2023
-Motié motié[19], illustrations de Nathalie Choux, Rouergue 2023
-Séries
-série Capitaine, Milan
+Motié motié, illustrations de Nathalie Choux, Rouergue 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Henri_Meunier_(illustrateur_français)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henri_Meunier_(illustrateur_fran%C3%A7ais)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Quelques œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Séries</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>série Capitaine, Milan
 La mer est mon jardin, 2008
 Mon trésor, 2009
 série Le Casse (bande dessinée) : Tome 2 :  Le troisième jour, scénario Henri Meunier et Richard Guérineau, dessin Richard Guérineau, couleur Delf, Delcourt, 2010 — BD
@@ -601,48 +651,50 @@
  Morse attack, 2020
 Le monde selon Grosantox, 2022
 série Taupe et mulot, Henri Meunier et Benjamin Chaud, Hélium
-Les beaux jours[11],[20], 2019
-La tarte aux lombrics[21], 2019
+Les beaux jours 2019
+La tarte aux lombrics, 2019
 Notre part de ciel, 2020
- Bonnet blanc et blanc bonnet[22], 2021
+ Bonnet blanc et blanc bonnet, 2021
 Apprendre à voler, 2022
 Faire famille, 2023
 Atteindre les sommets, 2023</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Henri_Meunier_(illustrateur_fran%C3%A7ais)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Henri_Meunier_(illustrateur_français)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Henri_Meunier_(illustrateur_fran%C3%A7ais)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2003 : Prix Octogone[5],[6] catégorie Album pour La môme aux oiseaux, texte de Henri Meunier, illustrations de Régis Lejonc
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2003 : Prix Octogone, catégorie Album pour La môme aux oiseaux, texte de Henri Meunier, illustrations de Régis Lejonc
 2005 : Prix Octogone catégorie graphisme pour L'Autre fois, texte et illustration de Henri Meunier.
 2006 : Prix Écolire pour Au panier,  texte de Henri Meunier et illustration de Nathalie Choux.
-2018 : Prix Sorcières[7],[23] catégorie Carrément Sorcières - Fiction, pour Cœur de bois, texte de Henri Meunier, illustrations de Régis Lejonc.
-2021 :  Prix Bernard Versele[24] pour La face cachée du prince charmant, avec Guillaume Guéraud.
-Un de ses ouvrages fait partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)[13] : La Famille Ogre (2004), qu'il a écrit et illustré.
+2018 : Prix Sorcières, catégorie Carrément Sorcières - Fiction, pour Cœur de bois, texte de Henri Meunier, illustrations de Régis Lejonc.
+2021 :  Prix Bernard Versele pour La face cachée du prince charmant, avec Guillaume Guéraud.
+Un de ses ouvrages fait partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF) : La Famille Ogre (2004), qu'il a écrit et illustré.
 </t>
         </is>
       </c>
